--- a/Data/prize_draw_res.xlsx
+++ b/Data/prize_draw_res.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruoyangzhang/Documents/PythonWorkingDirectory/LEX_spot_allocation/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4C643-65CD-E545-930B-A2A6928C14D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>Neuroprofiler</t>
   </si>
@@ -67,134 +73,146 @@
     <t>Founders_Factory</t>
   </si>
   <si>
+    <t>Priscille Boissonnet</t>
+  </si>
+  <si>
+    <t>Sami Mhirech</t>
+  </si>
+  <si>
+    <t>Robin Ali</t>
+  </si>
+  <si>
+    <t>Lola Moisset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Limnavong </t>
+  </si>
+  <si>
     <t>Grégoire Virepinte</t>
   </si>
   <si>
+    <t>Cyriac Parisot</t>
+  </si>
+  <si>
+    <t>Mathilde Duverger</t>
+  </si>
+  <si>
+    <t>Hamza Sentissi</t>
+  </si>
+  <si>
+    <t>Sebastien Moeller</t>
+  </si>
+  <si>
+    <t>Benoit Audigier</t>
+  </si>
+  <si>
+    <t>Simon Pagezy</t>
+  </si>
+  <si>
+    <t>Alex C</t>
+  </si>
+  <si>
+    <t>Jean-Eudes</t>
+  </si>
+  <si>
+    <t>Megah Fadhillah</t>
+  </si>
+  <si>
+    <t>Sebi</t>
+  </si>
+  <si>
+    <t>Alexandre Momeni</t>
+  </si>
+  <si>
+    <t>Youssef Hantous</t>
+  </si>
+  <si>
+    <t>Louis Dussart</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Cadena</t>
+  </si>
+  <si>
+    <t>Gustave Larrouturou</t>
+  </si>
+  <si>
+    <t>Ruoyang ZHANG</t>
+  </si>
+  <si>
+    <t>Mathilde Lavacquery</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Ran Huo</t>
+  </si>
+  <si>
+    <t>Louise Badarani</t>
+  </si>
+  <si>
+    <t>Pierre Watrin</t>
+  </si>
+  <si>
     <t>Sacha Izadi</t>
   </si>
   <si>
-    <t>Mathilde Lavacquery</t>
-  </si>
-  <si>
     <t>Makoto Miyazaki</t>
   </si>
   <si>
-    <t>Pierre Watrin</t>
-  </si>
-  <si>
-    <t>Benoit Audigier</t>
-  </si>
-  <si>
-    <t>Ran Huo</t>
-  </si>
-  <si>
-    <t>Katie</t>
-  </si>
-  <si>
-    <t>Sebastien Moeller</t>
-  </si>
-  <si>
-    <t>Mathilde Duverger</t>
-  </si>
-  <si>
     <t>Bouyoux</t>
   </si>
   <si>
-    <t>Sami Mhirech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Limnavong </t>
-  </si>
-  <si>
-    <t>Megah Fadhillah</t>
-  </si>
-  <si>
-    <t>Simon Pagezy</t>
-  </si>
-  <si>
-    <t>Maria Fernanda Cadena</t>
-  </si>
-  <si>
-    <t>Ruoyang ZHANG</t>
-  </si>
-  <si>
-    <t>Alexandre Momeni</t>
-  </si>
-  <si>
-    <t>Youssef Hantous</t>
-  </si>
-  <si>
-    <t>Sebi</t>
-  </si>
-  <si>
-    <t>Lola Moisset</t>
-  </si>
-  <si>
-    <t>Robin Ali</t>
-  </si>
-  <si>
-    <t>Jean-Eudes</t>
-  </si>
-  <si>
-    <t>Alex C</t>
-  </si>
-  <si>
-    <t>Hamza Sentissi</t>
-  </si>
-  <si>
-    <t>Louise Badarani</t>
+    <t>Daniel Wientjens</t>
+  </si>
+  <si>
+    <t>Lapparov Valentin</t>
+  </si>
+  <si>
+    <t>Clement Ponsonnet</t>
+  </si>
+  <si>
+    <t>Margaux Wehr</t>
+  </si>
+  <si>
+    <t>Margaux Girard-Soppet</t>
+  </si>
+  <si>
+    <t>Darren Wan</t>
   </si>
   <si>
     <t>Dimitri Iordanovitch</t>
   </si>
   <si>
+    <t>Eric Brea Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhijian XU </t>
+  </si>
+  <si>
+    <t>Diederik</t>
+  </si>
+  <si>
+    <t>Charlotte Caucheteux</t>
+  </si>
+  <si>
+    <t>Alessandro Girelli</t>
+  </si>
+  <si>
+    <t>Yuhua  QIAO</t>
+  </si>
+  <si>
     <t>Guilhem Vuillier</t>
   </si>
   <si>
-    <t>Margaux Girard-Soppet</t>
-  </si>
-  <si>
-    <t>Alessandro Girelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhijian XU </t>
-  </si>
-  <si>
-    <t>Diederik</t>
-  </si>
-  <si>
-    <t>Lapparov Valentin</t>
-  </si>
-  <si>
-    <t>Charlotte Caucheteux</t>
-  </si>
-  <si>
-    <t>Margaux Wehr</t>
-  </si>
-  <si>
-    <t>Darren Wan</t>
-  </si>
-  <si>
     <t>Viktor Malesevic</t>
-  </si>
-  <si>
-    <t>Clement Ponsonnet</t>
-  </si>
-  <si>
-    <t>Yuhua  QIAO</t>
-  </si>
-  <si>
-    <t>Eric Brea Garcia</t>
-  </si>
-  <si>
-    <t>Cyriac Parisot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +275,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -303,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +361,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +413,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +606,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -615,52 +694,52 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -671,52 +750,52 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -727,52 +806,52 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -783,49 +862,49 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -836,37 +915,40 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -877,37 +959,40 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -918,37 +1003,37 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -959,37 +1044,37 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1000,34 +1085,34 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1038,31 +1123,31 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
         <v>57</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1073,280 +1158,354 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" t="s">
-        <v>33</v>
-      </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
         <v>37</v>
       </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
       </c>
       <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
         <v>27</v>
       </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
         <v>20</v>
       </c>
-      <c r="P17" t="s">
-        <v>46</v>
-      </c>
       <c r="R17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
         <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
       <c r="O22" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
       <c r="R23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
       <c r="R24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
       <c r="R25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
       <c r="R26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
